--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.81584718680222</v>
+        <v>88.55947474139197</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.788633944973</v>
+        <v>121.1709803094085</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.93301695095309</v>
+        <v>109.6065920132492</v>
       </c>
       <c r="AD2" t="n">
-        <v>67815.84718680222</v>
+        <v>88559.47474139197</v>
       </c>
       <c r="AE2" t="n">
-        <v>92788.633944973</v>
+        <v>121170.9803094085</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.554916847221826e-06</v>
+        <v>1.277196177650195e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.681944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>83933.01695095308</v>
+        <v>109606.5920132492</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.32295288749732</v>
+        <v>65.65218574605741</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.69530481707416</v>
+        <v>89.82821690774151</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.47105116437739</v>
+        <v>81.25513796078262</v>
       </c>
       <c r="AD3" t="n">
-        <v>55322.95288749732</v>
+        <v>65652.18574605741</v>
       </c>
       <c r="AE3" t="n">
-        <v>75695.30481707415</v>
+        <v>89828.2169077415</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.205307375590345e-06</v>
+        <v>1.556202885081725e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.201388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>68471.05116437738</v>
+        <v>81255.13796078262</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.98957484728621</v>
+        <v>64.99489134512562</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.23916227485644</v>
+        <v>88.92887771060467</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.05844222618867</v>
+        <v>80.44163043438972</v>
       </c>
       <c r="AD2" t="n">
-        <v>54989.5748472862</v>
+        <v>64994.89134512562</v>
       </c>
       <c r="AE2" t="n">
-        <v>75239.16227485644</v>
+        <v>88928.87771060466</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.016591441247682e-06</v>
+        <v>1.561485197610177e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.325</v>
       </c>
       <c r="AH2" t="n">
-        <v>68058.44222618868</v>
+        <v>80441.63043438972</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.5036173089693</v>
+        <v>64.50893380680871</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.57425373199806</v>
+        <v>88.26396916774628</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.4569916214555</v>
+        <v>79.84017982965655</v>
       </c>
       <c r="AD3" t="n">
-        <v>54503.6173089693</v>
+        <v>64508.93380680872</v>
       </c>
       <c r="AE3" t="n">
-        <v>74574.25373199806</v>
+        <v>88263.96916774628</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.120873982102336e-06</v>
+        <v>1.579544754259135e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.298611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>67456.9916214555</v>
+        <v>79840.17982965655</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.40630942486528</v>
+        <v>77.52176454613156</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.59653042844596</v>
+        <v>106.0686982708542</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.66380892793349</v>
+        <v>95.94565057626376</v>
       </c>
       <c r="AD2" t="n">
-        <v>68406.30942486528</v>
+        <v>77521.76454613157</v>
       </c>
       <c r="AE2" t="n">
-        <v>93596.53042844596</v>
+        <v>106068.6982708542</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.656119437946312e-06</v>
+        <v>1.448702549478908e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>84663.80892793348</v>
+        <v>95945.65057626375</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.59558582795484</v>
+        <v>74.50350653132787</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.06833323392441</v>
+        <v>101.9389844988559</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.80847827267225</v>
+        <v>92.210070890574</v>
       </c>
       <c r="AD2" t="n">
-        <v>55595.58582795483</v>
+        <v>74503.50653132788</v>
       </c>
       <c r="AE2" t="n">
-        <v>76068.33323392441</v>
+        <v>101938.9844988559</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.465294807494288e-06</v>
+        <v>1.542192869071652e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.643055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>68808.47827267225</v>
+        <v>92210.070890574</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.36037757682853</v>
+        <v>91.96567751096293</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7431491489062</v>
+        <v>125.8314972097938</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.03292579156675</v>
+        <v>113.8223157217398</v>
       </c>
       <c r="AD2" t="n">
-        <v>74360.37757682853</v>
+        <v>91965.67751096294</v>
       </c>
       <c r="AE2" t="n">
-        <v>101743.1491489062</v>
+        <v>125831.4972097938</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.722172140788299e-06</v>
+        <v>1.317329150893755e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.613888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>92032.92579156675</v>
+        <v>113822.3157217398</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.53359999987953</v>
+        <v>66.62405514387491</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.35176560621581</v>
+        <v>91.15797149368652</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.9694216606612</v>
+        <v>82.45798263536776</v>
       </c>
       <c r="AD2" t="n">
-        <v>56533.59999987953</v>
+        <v>66624.05514387491</v>
       </c>
       <c r="AE2" t="n">
-        <v>77351.76560621581</v>
+        <v>91157.97149368652</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.831352910573168e-06</v>
+        <v>1.519417671758089e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.351388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>69969.4216606612</v>
+        <v>82457.98263536775</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.73986490810401</v>
+        <v>64.83032005209938</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.89749811964249</v>
+        <v>88.70370400711323</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.74938601841961</v>
+        <v>80.23794699312617</v>
       </c>
       <c r="AD3" t="n">
-        <v>54739.86490810401</v>
+        <v>64830.32005209938</v>
       </c>
       <c r="AE3" t="n">
-        <v>74897.49811964249</v>
+        <v>88703.70400711324</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.143783201182448e-06</v>
+        <v>1.57317071611621e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.272222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>67749.38601841961</v>
+        <v>80237.94699312617</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.37532661460892</v>
+        <v>106.5250262344307</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.2872648351878</v>
+        <v>145.7522404463658</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.6163399106037</v>
+        <v>131.8418511827585</v>
       </c>
       <c r="AD2" t="n">
-        <v>89375.32661460893</v>
+        <v>106525.0262344307</v>
       </c>
       <c r="AE2" t="n">
-        <v>122287.2648351878</v>
+        <v>145752.2404463658</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.034711068579244e-06</v>
+        <v>1.209754616344725e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.119444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>110616.3399106037</v>
+        <v>131841.8511827585</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.60014413689584</v>
+        <v>64.32914453519007</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.70632599643018</v>
+        <v>88.01797355457491</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.57645909433487</v>
+        <v>79.61766169254916</v>
       </c>
       <c r="AD2" t="n">
-        <v>54600.14413689583</v>
+        <v>64329.14453519006</v>
       </c>
       <c r="AE2" t="n">
-        <v>74706.32599643018</v>
+        <v>88017.97355457491</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.879857033099125e-06</v>
+        <v>1.572688664026599e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.431944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>67576.45909433486</v>
+        <v>79617.66169254917</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.47536510118948</v>
+        <v>64.20436549948371</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.5355978149143</v>
+        <v>87.84724537305904</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.42202497084428</v>
+        <v>79.4632275690586</v>
       </c>
       <c r="AD3" t="n">
-        <v>54475.36510118948</v>
+        <v>64204.36549948371</v>
       </c>
       <c r="AE3" t="n">
-        <v>74535.59781491429</v>
+        <v>87847.24537305904</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.924949024547036e-06</v>
+        <v>1.580674790776633e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.419444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>67422.02497084427</v>
+        <v>79463.2275690586</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.66697150712581</v>
+        <v>64.58391185493073</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.7977621525943</v>
+        <v>88.36655744098482</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.65916871208613</v>
+        <v>79.93297722208078</v>
       </c>
       <c r="AD2" t="n">
-        <v>54666.97150712581</v>
+        <v>64583.91185493073</v>
       </c>
       <c r="AE2" t="n">
-        <v>74797.7621525943</v>
+        <v>88366.55744098482</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.009301894195633e-06</v>
+        <v>1.571143581840396e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.348611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>67659.16871208613</v>
+        <v>79932.97722208078</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.48024213764022</v>
+        <v>64.39718248544514</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.54227079134586</v>
+        <v>88.11106607973637</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.42806108777079</v>
+        <v>79.70186959776541</v>
       </c>
       <c r="AD3" t="n">
-        <v>54480.24213764022</v>
+        <v>64397.18248544514</v>
       </c>
       <c r="AE3" t="n">
-        <v>74542.27079134586</v>
+        <v>88111.06607973638</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.062166946909477e-06</v>
+        <v>1.580362785420257e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.334722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>67428.06108777078</v>
+        <v>79701.86959776541</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.44722958830277</v>
+        <v>72.86999576672362</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.4430545000171</v>
+        <v>99.70394300531666</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.28848929863595</v>
+        <v>90.18833862027699</v>
       </c>
       <c r="AD2" t="n">
-        <v>62447.22958830277</v>
+        <v>72869.99576672362</v>
       </c>
       <c r="AE2" t="n">
-        <v>85443.0545000171</v>
+        <v>99703.94300531666</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.104989730896147e-06</v>
+        <v>1.377794537315417e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.519444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>77288.48929863595</v>
+        <v>90188.33862027699</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.22158936343032</v>
+        <v>65.47376334125894</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.5566147716027</v>
+        <v>89.58409150205541</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.34559750219296</v>
+        <v>81.03431154118296</v>
       </c>
       <c r="AD3" t="n">
-        <v>55221.58936343032</v>
+        <v>65473.76334125895</v>
       </c>
       <c r="AE3" t="n">
-        <v>75556.61477160269</v>
+        <v>89584.09150205541</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.169342211477934e-06</v>
+        <v>1.558727404871506e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.227777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>68345.59750219296</v>
+        <v>81034.31154118296</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.2332116143782</v>
+        <v>64.92669883010367</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.5725168480871</v>
+        <v>88.83557370311023</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.3599819068164</v>
+        <v>80.35723123041757</v>
       </c>
       <c r="AD2" t="n">
-        <v>55233.2116143782</v>
+        <v>64926.69883010368</v>
       </c>
       <c r="AE2" t="n">
-        <v>75572.51684808711</v>
+        <v>88835.57370311023</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.617386202090435e-06</v>
+        <v>1.553918654014414e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.563888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>68359.98190681641</v>
+        <v>80357.23123041757</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.15591427659732</v>
+        <v>64.8494014923228</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.46675522041748</v>
+        <v>88.72981207544062</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.26431402045417</v>
+        <v>80.26156334405533</v>
       </c>
       <c r="AD3" t="n">
-        <v>55155.91427659732</v>
+        <v>64849.4014923228</v>
       </c>
       <c r="AE3" t="n">
-        <v>75466.75522041749</v>
+        <v>88729.81207544063</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.656521429636481e-06</v>
+        <v>1.560975661636765e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.552777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>68264.31402045417</v>
+        <v>80261.56334405534</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.50984472064421</v>
+        <v>75.92794486502483</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.68750670204278</v>
+        <v>103.8879638688032</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.17768150102725</v>
+        <v>93.97304240486388</v>
       </c>
       <c r="AD2" t="n">
-        <v>57509.84472064421</v>
+        <v>75927.94486502482</v>
       </c>
       <c r="AE2" t="n">
-        <v>78687.50670204278</v>
+        <v>103887.9638688032</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.989957402120584e-06</v>
+        <v>1.490670658049737e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.880555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>71177.68150102725</v>
+        <v>93973.04240486388</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.70608742215724</v>
+        <v>79.67299957720087</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.74318814338389</v>
+        <v>109.0121129461532</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.51015404692056</v>
+        <v>98.60814988606158</v>
       </c>
       <c r="AD2" t="n">
-        <v>70706.08742215724</v>
+        <v>79672.99957720087</v>
       </c>
       <c r="AE2" t="n">
-        <v>96743.18814338389</v>
+        <v>109012.1129461532</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.246808782139901e-06</v>
+        <v>1.393588202586939e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.286111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>87510.15404692056</v>
+        <v>98608.14988606158</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.5634411744496</v>
+        <v>125.6843005701855</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.5953367607329</v>
+        <v>171.9668048400615</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.4634309365935</v>
+        <v>155.5545343431004</v>
       </c>
       <c r="AD2" t="n">
-        <v>100563.4411744495</v>
+        <v>125684.3005701855</v>
       </c>
       <c r="AE2" t="n">
-        <v>137595.336760733</v>
+        <v>171966.8048400615</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.126541852949908e-06</v>
+        <v>1.057400174683218e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.984722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>124463.4309365935</v>
+        <v>155554.5343431004</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.83452790764713</v>
+        <v>64.6595025318138</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.02702021185414</v>
+        <v>88.46998393992148</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.86654670393601</v>
+        <v>80.02653284111895</v>
       </c>
       <c r="AD2" t="n">
-        <v>54834.52790764713</v>
+        <v>64659.50253181381</v>
       </c>
       <c r="AE2" t="n">
-        <v>75027.02021185413</v>
+        <v>88469.98393992148</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.91382761134793e-06</v>
+        <v>1.566124348246583e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.397222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>67866.54670393601</v>
+        <v>80026.53284111895</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.68631024838796</v>
+        <v>64.51128487255464</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.82422227155421</v>
+        <v>88.26718599962155</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.68310351442955</v>
+        <v>79.8430896516125</v>
       </c>
       <c r="AD3" t="n">
-        <v>54686.31024838796</v>
+        <v>64511.28487255464</v>
       </c>
       <c r="AE3" t="n">
-        <v>74824.2222715542</v>
+        <v>88267.18599962155</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.962450447570091e-06</v>
+        <v>1.574667188764543e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.384722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>67683.10351442955</v>
+        <v>79843.08965161251</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.465323836884</v>
+        <v>68.63797926327885</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.994835381645</v>
+        <v>93.91351132191517</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.36024056629601</v>
+        <v>84.95053760981557</v>
       </c>
       <c r="AD2" t="n">
-        <v>58465.323836884</v>
+        <v>68637.97926327884</v>
       </c>
       <c r="AE2" t="n">
-        <v>79994.83538164501</v>
+        <v>93913.51132191517</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.589054844178466e-06</v>
+        <v>1.468632659869807e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.397222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>72360.24056629601</v>
+        <v>84950.53760981557</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.02398370017993</v>
+        <v>65.19663912657477</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.28624198539706</v>
+        <v>89.20491792566719</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.10102871523212</v>
+        <v>80.69132575875166</v>
       </c>
       <c r="AD3" t="n">
-        <v>55023.98370017993</v>
+        <v>65196.63912657477</v>
       </c>
       <c r="AE3" t="n">
-        <v>75286.24198539705</v>
+        <v>89204.91792566719</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.154422740338331e-06</v>
+        <v>1.565304269517874e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>68101.02871523213</v>
+        <v>80691.32575875166</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.5071627155974</v>
+        <v>173.9735357280144</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.6163428828149</v>
+        <v>238.0382667536711</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.1378708603777</v>
+        <v>215.3202286635753</v>
       </c>
       <c r="AD2" t="n">
-        <v>141507.1627155975</v>
+        <v>173973.5357280144</v>
       </c>
       <c r="AE2" t="n">
-        <v>193616.3428828149</v>
+        <v>238038.2667536711</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.876573761416823e-06</v>
+        <v>8.309283083613748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.826388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>175137.8708603777</v>
+        <v>215320.2286635753</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.38897847492683</v>
+        <v>75.06012557051375</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.15388805552422</v>
+        <v>102.7005752245685</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.79042926568466</v>
+        <v>92.89897646632417</v>
       </c>
       <c r="AD2" t="n">
-        <v>56388.97847492683</v>
+        <v>75060.12557051374</v>
       </c>
       <c r="AE2" t="n">
-        <v>77153.88805552422</v>
+        <v>102700.5752245685</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.255128692090413e-06</v>
+        <v>1.520951768377813e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.747222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>69790.42926568467</v>
+        <v>92898.97646632417</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.90535450019853</v>
+        <v>64.53386739508021</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.12392828043166</v>
+        <v>88.2980844032116</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.95420600245983</v>
+        <v>79.8710391549301</v>
       </c>
       <c r="AD2" t="n">
-        <v>54905.35450019853</v>
+        <v>64533.8673950802</v>
       </c>
       <c r="AE2" t="n">
-        <v>75123.92828043166</v>
+        <v>88298.0844032116</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.751798908374988e-06</v>
+        <v>1.563445005857565e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.494444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>67954.20600245983</v>
+        <v>79871.0391549301</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.80992686786083</v>
+        <v>64.4384397627425</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.99335998389728</v>
+        <v>88.16751610667721</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.8360989608929</v>
+        <v>79.75293211336314</v>
       </c>
       <c r="AD3" t="n">
-        <v>54809.92686786083</v>
+        <v>64438.43976274251</v>
       </c>
       <c r="AE3" t="n">
-        <v>74993.35998389727</v>
+        <v>88167.51610667721</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.793305688430878e-06</v>
+        <v>1.570859889205206e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.483333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>67836.09896089289</v>
+        <v>79752.93211336315</v>
       </c>
     </row>
   </sheetData>
